--- a/assets/disciplinas/LOM3242.xlsx
+++ b/assets/disciplinas/LOM3242.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>A reologia é a ciência que estuda o escoamento de materiais. O seu conhecimento é necessário para poder entender os processos de conformação de materiais. A disciplina visa propiciar ao estudante os conceitos básicos e aplicados de reologia e familiarizá-los com os métodos experimentais para avaliação das propriedades reológicas de materiais.</t>
+    <t>5840897 - Clodoaldo Saron</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840897 - Clodoaldo Saron</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Escoamento de fluidos newtonianos e não newtonianos. Viscosidade e reometria. Viscoelasticidade. Aplicações.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Introdução. 2. Tensão e deformação. 3. Tipos de deformação e escoamento de materiais. 4. Equações fundamentais da reologia. Escoamento de fluidos newtonianos e não newtonianos. 5. Viscosimetria e reometria. 6. Reologia de sistemas dispersos. Colóides e emulsões. Soluções diluídas. Viscosimetria capilar. 7. Reologia de polímeros fundidos. 8. Viscoelasticidade. 9. Comportamento dinâmico-mecânico de materiais. 10. Aplicações.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,28 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas, seminários e exercícios comentados.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média aritmética de duas provas sendo a primeira com peso 1 e a segunda com peso 2.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>SCHRAMM, G. Reologia e Reometria. Editora Artliber, 2006. 
-MALKIN, A. Rheology Fundamentals. ChemTec Publishing, 1994. 
-CANEVAROLO, S. Técnicas de Caracterização de Polímeros. Editora Artliber, 2004. 
-WHITE, J. L. Principles of Polymer Engineering Rheology, New York: John Wiley, 1990</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -490,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,106 +603,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3242.xlsx
+++ b/assets/disciplinas/LOM3242.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -76,6 +76,9 @@
     <t>Objectives:</t>
   </si>
   <si>
+    <t>Rheology is the science that studies the flow of materials. Your knowledge is necessary to understand the processes of forming materials. The course aims to provide students with the basic and applied concepts of rheology and familiarize them with experimental methods for evaluating the rheological properties of materials.</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
@@ -88,10 +91,16 @@
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>Flow of Newtonian and non-Newtonian fluids. Viscosity and rheometry. viscoelasticity. Applications.</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
     <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>1. Introduction. 2. Stress and deformation. 3. Types of deformation and flow of materials. 4. Fundamental equations of rheology. Flow of Newtonian and non-Newtonian fluids. 5. Viscosimetry and rheometry. 6. Rheology of dispersed systems. Colloids and emulsions. diluted solutions. Capillary viscosimetry. 7. Rheology of molten polymers. 8. Viscoelasticity. 9. Dynamic-mechanical behavior of materials. 10. Applications.</t>
   </si>
   <si>
     <t>Avaliação:</t>
@@ -597,31 +606,43 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -632,17 +653,23 @@
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -653,48 +680,48 @@
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3242.xlsx
+++ b/assets/disciplinas/LOM3242.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>A reologia é a ciência que estuda o escoamento de materiais. O seu conhecimento é necessário para poder entender os processos de conformação de materiais. A disciplina visa propiciar ao estudante os conceitos básicos e aplicados de reologia e familiarizá-los com os métodos experimentais para avaliação das propriedades reológicas de materiais.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Rheology is the science that studies the flow of materials. Your knowledge is necessary to understand the processes of forming materials. The course aims to provide students with the basic and applied concepts of rheology and familiarize them with experimental methods for evaluating the rheological properties of materials.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840897 - Clodoaldo Saron</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Rheology is the science that studies the flow of materials. Your knowledge is necessary to understand the processes of forming materials. The course aims to provide students with the basic and applied concepts of rheology and familiarize them with experimental methods for evaluating the rheological properties of materials.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Escoamento de fluidos newtonianos e não newtonianos. Viscosidade e reometria. Viscoelasticidade. Aplicações.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Introdução. 2. Tensão e deformação. 3. Tipos de deformação e escoamento de materiais. 4. Equações fundamentais da reologia. Escoamento de fluidos newtonianos e não newtonianos. 5. Viscosimetria e reometria. 6. Reologia de sistemas dispersos. Colóides e emulsões. Soluções diluídas. Viscosimetria capilar. 7. Reologia de polímeros fundidos. 8. Viscoelasticidade. 9. Comportamento dinâmico-mecânico de materiais. 10. Aplicações.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,28 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas expositivas, seminários e exercícios comentados.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas, seminários e exercícios comentados.</t>
+    <t>Média aritmética de duas provas sendo a primeira com peso 1 e a segunda com peso 2.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média aritmética de duas provas sendo a primeira com peso 1 e a segunda com peso 2.</t>
+    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
+    <t>SCHRAMM, G. Reologia e Reometria. Editora Artliber, 2006. 
+MALKIN, A. Rheology Fundamentals. ChemTec Publishing, 1994. 
+CANEVAROLO, S. Técnicas de Caracterização de Polímeros. Editora Artliber, 2004. 
+WHITE, J. L. Principles of Polymer Engineering Rheology, New York: John Wiley, 1990</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +499,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +630,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +671,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
